--- a/trunk/DOC41WEBUI/docs/BDS DocTypes.xlsx
+++ b/trunk/DOC41WEBUI/docs/BDS DocTypes.xlsx
@@ -427,7 +427,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +446,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -465,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -473,7 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -778,7 +771,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1542,11 +1535,27 @@
       <c r="A31" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
         <v>123</v>
       </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">

--- a/trunk/DOC41WEBUI/docs/BDS DocTypes.xlsx
+++ b/trunk/DOC41WEBUI/docs/BDS DocTypes.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\DOC41WEBUI\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF96B4-7E23-45CB-82BE-1BCE07627114}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="48" windowWidth="17088" windowHeight="8052"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152510"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="146">
   <si>
     <t>SAP-Type</t>
   </si>
@@ -51,6 +57,9 @@
     <t>Perm-Direct-Dwnl</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>DOC41.16</t>
   </si>
   <si>
@@ -108,12 +117,15 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>(DOC_GLO_SD)</t>
+    <t>-</t>
   </si>
   <si>
     <t>DOC_CMR_UP</t>
   </si>
   <si>
+    <t>CMRDocumentType</t>
+  </si>
+  <si>
     <t>DOC41.08</t>
   </si>
   <si>
@@ -126,9 +138,6 @@
     <t>DOC_CMROUT_DOWN</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>CMROutDocumentType</t>
   </si>
   <si>
@@ -195,6 +204,9 @@
     <t>DOC_DELCERT_DOWN_COUNTRY</t>
   </si>
   <si>
+    <t>- (DOC_GLO_QM)</t>
+  </si>
+  <si>
     <t>DeliveryCertDownCountryDocumentType</t>
   </si>
   <si>
@@ -228,6 +240,39 @@
     <t>SupplierCOADocumentType</t>
   </si>
   <si>
+    <t>QMCoA</t>
+  </si>
+  <si>
+    <t>DOC_QMCOA_UP</t>
+  </si>
+  <si>
+    <t>QMCoAUploadDocumentType</t>
+  </si>
+  <si>
+    <t>DOC41.55</t>
+  </si>
+  <si>
+    <t>QMCoC</t>
+  </si>
+  <si>
+    <t>DOC_QMCOC_UP</t>
+  </si>
+  <si>
+    <t>QMCoCUploadDocumentType</t>
+  </si>
+  <si>
+    <t>DOC41.71</t>
+  </si>
+  <si>
+    <t>QMOTH</t>
+  </si>
+  <si>
+    <t>DOC_QMOTH_UP</t>
+  </si>
+  <si>
+    <t>QMOTHUploadDocumentType</t>
+  </si>
+  <si>
     <t>DOC41.48</t>
   </si>
   <si>
@@ -369,50 +414,59 @@
     <t>DD=DirectDownload may not be in use, Spec. unknown</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>CMRDocumentType</t>
-  </si>
-  <si>
-    <t>- (DN Spepor)</t>
-  </si>
-  <si>
-    <t>DN Spepor</t>
-  </si>
-  <si>
-    <t>!UP Spepor!</t>
-  </si>
-  <si>
-    <t>Spepor wurden für AWB, BOL und FDCERT über den BDS Webservice-User DS_CARR die Downloadrechte entzogen. Damit werden diese Typen im Download vor der Abfraage ausgefiltert</t>
-  </si>
-  <si>
-    <t>Spepor verwedet im Upload CMR explizit (ausfiltern durch Rechteentzug also nicht möglich, d.h. kein Upload mehr möglich, wurde aber offenbar auch nicht genutzt.</t>
-  </si>
-  <si>
-    <t>- (!UP!/DN Spepor)</t>
-  </si>
-  <si>
-    <t>CMRIncomming,  Street, Upload Spepor (now error)!</t>
-  </si>
-  <si>
-    <t>Air Way Bill,  Air, Upload Spepor (now error)!</t>
-  </si>
-  <si>
-    <t>Bill Of Lading,  See, Upload Spepor (now error)!</t>
-  </si>
-  <si>
-    <t>- (DOC_GLO_QM)</t>
-  </si>
-  <si>
-    <t>Kind: SD = Sales &amp; Delivery, QM = Quality Management, LS = Layout Supplier, PM = Packaging Material</t>
+    <t>Deaktiviert</t>
+  </si>
+  <si>
+    <t>Veraltet, werden aktuell deaktiviert und durch neue QM-Typen ersetzt</t>
+  </si>
+  <si>
+    <t>Kind: SD = Sales &amp; Delivery, QM = Quality Management, LS = Layout Supplier, PM = Packaging Material (PM-Supplier, PP/PI Toller - Version/Timeframe)</t>
+  </si>
+  <si>
+    <t>LS vorbereitet, aber nicht Live gesetzt</t>
+  </si>
+  <si>
+    <t>Neu, wird aktuell Live gesetzt</t>
+  </si>
+  <si>
+    <t>- (!UP!/DN)</t>
+  </si>
+  <si>
+    <t>!UP!</t>
+  </si>
+  <si>
+    <t>- (DN)</t>
+  </si>
+  <si>
+    <t>Webservice wurden für AWB, BOL und FDCERT über den BDS Webservice-User DS_CARR die Downloadrechte entzogen. Damit werden diese Typen im Download vor der Abfraage ausgefiltert</t>
+  </si>
+  <si>
+    <t>Webservice verwedet im Upload CMR explizit (ausfiltern durch Rechteentzug also nicht möglich, d.h. kein Upload mehr möglich, wurde aber offenbar auch nicht genutzt.</t>
+  </si>
+  <si>
+    <t>Air Way Bill,  Air, Upload Spepor (now error)! Deactivated</t>
+  </si>
+  <si>
+    <t>Bill Of Lading,  See, Upload Spepor (now error)!  Deactivated</t>
+  </si>
+  <si>
+    <t>CMRIncomming,  Street, Upload Spepor (now error)!  Deactivated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deactivated</t>
+  </si>
+  <si>
+    <t>not rolled out</t>
+  </si>
+  <si>
+    <t>never rolled out, now outdated, deactivated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +480,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,6 +507,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548DD4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -459,14 +546,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -477,14 +577,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -522,9 +625,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,9 +660,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,9 +712,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,800 +904,984 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.296875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.19921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" customWidth="1"/>
     <col min="5" max="5" width="25.8984375" customWidth="1"/>
     <col min="7" max="7" width="29.59765625" customWidth="1"/>
-    <col min="8" max="8" width="21.296875" customWidth="1"/>
-    <col min="9" max="9" width="22.796875" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" customWidth="1"/>
+    <col min="9" max="9" width="22.69921875" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="31.5" customWidth="1"/>
-    <col min="12" max="12" width="44.5" customWidth="1"/>
+    <col min="12" max="12" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="K3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="L3" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="F4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="K4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="L4" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>125</v>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="B7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="F7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="H7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="11" t="s">
         <v>43</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>120</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>128</v>
       </c>
-      <c r="I11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" t="s">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" t="s">
-        <v>96</v>
-      </c>
-      <c r="I25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>129</v>
       </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1569,25 +1890,471 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="7c593367-9bb5-4764-945e-f6a26d2260c4" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x0101|-2126682137" UniqueId="ab3b55e9-aae5-4563-b264-599d7d4a4f77">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Bayer SharePoint Retention Policy 2.1"/>
+                <action type="action" id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Action.MoveToRecycleBin"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006ABA3D3FCE1E6C46B7CEC75B94F98057" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="40d97eee90c750f20a9581036294e536">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e941b624-166c-4987-9ed6-d539972f16a8" xmlns:ns3="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="817555d38a64831e89785aebbfa4dcb4" ns1:_="" ns2:_="" ns3:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="e941b624-166c-4987-9ed6-d539972f16a8"/>
+    <xsd:import namespace="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:gbbd9102adcd43839cd73b51972a464c" minOccurs="0"/>
+                <xsd:element ref="ns1:_dlc_Exempt" minOccurs="0"/>
+                <xsd:element ref="ns1:_dlc_ExpireDateSaved" minOccurs="0"/>
+                <xsd:element ref="ns1:_dlc_ExpireDate" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdPersistId" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_Exempt" ma:index="12" nillable="true" ma:displayName="Exempt from Policy" ma:hidden="true" ma:internalName="_dlc_Exempt" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_ExpireDateSaved" ma:index="13" nillable="true" ma:displayName="Original Expiration Date" ma:hidden="true" ma:internalName="_dlc_ExpireDateSaved" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_ExpireDate" ma:index="14" nillable="true" ma:displayName="Expiration Date" ma:hidden="true" ma:internalName="_dlc_ExpireDate" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e941b624-166c-4987-9ed6-d539972f16a8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="8" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:description="" ma:hidden="true" ma:list="{da4aa818-abef-459c-a7f6-dbdbf9b993d5}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:description="" ma:hidden="true" ma:list="{da4aa818-abef-459c-a7f6-dbdbf9b993d5}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="gbbd9102adcd43839cd73b51972a464c" ma:index="10" ma:taxonomy="true" ma:internalName="gbbd9102adcd43839cd73b51972a464c" ma:taxonomyFieldName="DataClassBayerRetention" ma:displayName="Data Class" ma:readOnly="false" ma:default="1;#Short-Term|6d967203-8346-4b9c-90f8-b3828a3fa508" ma:fieldId="{0bbd9102-adcd-4383-9cd7-3b51972a464c}" ma:sspId="7c593367-9bb5-4764-945e-f6a26d2260c4" ma:termSetId="a305235b-fecf-45b3-8300-71c0f432cbcf" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_DocId" ma:index="15" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="16" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="17" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e941b624-166c-4987-9ed6-d539972f16a8">
+      <Value>1</Value>
+    </TaxCatchAll>
+    <gbbd9102adcd43839cd73b51972a464c xmlns="e941b624-166c-4987-9ed6-d539972f16a8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Short-Term</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">6d967203-8346-4b9c-90f8-b3828a3fa508</TermId>
+        </TermInfo>
+      </Terms>
+    </gbbd9102adcd43839cd73b51972a464c>
+    <_dlc_ExpireDateSaved xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_ExpireDate xmlns="http://schemas.microsoft.com/sharepoint/v3">2021-03-06T17:05:45+00:00</_dlc_ExpireDate>
+    <_dlc_DocId xmlns="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94">7K2U376YHAV2-1-668</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94">
+      <Url>http://sp-coll-bbs.bayer-ag.com/sites/030874/_layouts/15/DocIdRedir.aspx?ID=7K2U376YHAV2-1-668</Url>
+      <Description>7K2U376YHAV2-1-668</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41CF7974-71B2-40E1-BB50-AD91898517DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91451AC0-CB3B-4617-8DAB-BB1797BC7DAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{701C8B16-706D-44B5-B0DA-01F41489A1A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{210BFB34-C77F-483B-8D14-5B1199D0FA31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A770B8E-E9DE-4954-AFDF-D88D951EB44D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="e941b624-166c-4987-9ed6-d539972f16a8"/>
+    <ds:schemaRef ds:uri="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B694EDC-D29B-4EB1-885E-A79EC4BFD764}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e941b624-166c-4987-9ed6-d539972f16a8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c9b7aa7d-3fc8-4f78-a6eb-5e1d500a6d94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>